--- a/outputs-HGR-r202/g__Treponema_D.xlsx
+++ b/outputs-HGR-r202/g__Treponema_D.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,32 +479,2944 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT10270.fa</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0518909980425391</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1858896794378843</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0008606702349458748</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7613586522846307</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7613586522846307</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT10398.fa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.04223307662724103</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2124710483114633</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.003779623647197221</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7415162514140985</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7415162514140985</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT10625.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.02744851606997818</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2518136354460888</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0002991019088595587</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7204387465750735</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7204387465750735</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT11210.fa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.07986385404749374</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1888448414691259</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0004875699614964564</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7308037345218837</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7308037345218837</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT11332.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2003267094063665</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.07299664118550739</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.001229573971553677</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7254470754365725</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7254470754365725</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT11406.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3129723191241729</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3106692248581215</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3763584560174648</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.408030901638441e-13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3763584560174648</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541945</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541945(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT11644.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3737259566694348</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3298753107662136</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2963987325642032</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.48325494462329e-13</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3737259566694348</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp002449305</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp002449305(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT13045.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.07361573947873958</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1561659984286576</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0002535204869657601</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.769964741605637</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.769964741605637</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT14741.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.07361573947873958</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1561659984286576</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0002535204869657601</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.769964741605637</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.769964741605637</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT15742.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02434791856793943</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2196008486991348</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0006464405338303278</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7554047921990954</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7554047921990954</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1677.fa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1709450439349764</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.09123958826638409</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.002086747348945471</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7357286204496939</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.7357286204496939</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT17255.fa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.146509964667101</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1455387582773976</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0003450324483220604</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7076062446071795</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7076062446071795</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT17515.fa</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.081789297623798</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1300788966549595</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.00213466938627087</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7859971363349716</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7859971363349716</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT20287.fa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1200891025410755</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1839411458816891</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0001905875011092349</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6957791640761262</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6957791640761262</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT2203.fa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1355081191211612</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.07971328083457424</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.001846371037156326</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7829322290071082</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7829322290071082</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT23295.fa</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5806189051650799</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3174082114803126</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1019728833545357</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7.194444972928546e-14</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.5806189051650799</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp002449305</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp002449305(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT24052.fa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.05653917148112617</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2284558267245928</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0007719695675759258</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7142330322267052</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7142330322267052</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT25048.fa</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01893143248970362</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2822781377449617</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0001661665744288048</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6986242631909059</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.6986242631909059</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT25340.fa</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.08194112298990636</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1889001164963394</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0005189111687811934</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7286398493449731</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7286398493449731</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT29189.fa</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.08932475546009325</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1445036226876222</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0008191828272668396</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7653524390250177</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7653524390250177</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT29214.fa</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.05525848037831579</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1807827028235711</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0006126495131422884</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.7633461672849708</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7633461672849708</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT29221.fa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.09110340057629085</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1422259336713127</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0008535240203732701</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7658171417320232</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7658171417320232</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT29476.fa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.06176302709963517</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2372465050584604</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0005446394729023597</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.700445828369002</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.700445828369002</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT32691.fa</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.05113653239184802</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1431438479496241</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.003131720760559309</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8025878988979684</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8025878988979684</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT34540.fa</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7343511997195984</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1581399228664266</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.1075088774139249</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.993758367421869e-14</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7343511997195984</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp002449305</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp002449305</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT34945.fa</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.7353161915261007</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1585113794267616</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1061724290470976</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.995396100502429e-14</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.7353161915261007</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp002449305</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp002449305</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT37976.fa</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1294612007875168</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1134225455031113</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0005895882433198183</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.756526665466052</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.756526665466052</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43152.fa</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0608109385937687</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.214003726015388</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0005530501350610937</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7246322852557822</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.7246322852557822</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43233.fa</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.01883984018135094</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2381993864120786</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0002371745233223053</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7427235988832481</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.7427235988832481</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43329.fa</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1390728089725166</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1478361111539019</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0004329679973345267</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.7126581118762471</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.7126581118762471</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43835.fa</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1451660307021282</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.09112516051722248</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.001965264603163951</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7617435441774852</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.7617435441774852</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT47875.fa</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.2568486796731474</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.05256283621458237</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.001306045845585252</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6892824382666849</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.6892824382666849</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT50132.fa</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.285026904677534</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.3649285224889529</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.3500445728333429</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.700961531623793e-13</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.3649285224889529</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp002478955</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp002478955(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT51928.fa</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.05523881088350082</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.2599827781120645</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.000322217251714522</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6844561937527202</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.6844561937527202</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT52923.fa</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.3065675902033239</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.3764827270226961</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.3169496827738301</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.497222190279678e-13</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.3764827270226961</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp002478955</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp002478955(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT52941.fa</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.346105630414478</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.3610495933082942</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.2928447762770102</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.175279778894036e-13</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.3610495933082942</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp002478955</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp002478955(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT56604.fa</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.03263007838950716</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.2141802062567105</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0008637645475489625</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.7523259508062334</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.7523259508062334</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57066.fa</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.08080079458114169</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.1592116989955468</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0003014044779783247</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7596861019453331</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7596861019453331</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57346.fa</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.03263007838950716</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.2141802062567105</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0008637645475489625</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7523259508062334</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.7523259508062334</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57592.fa</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.05795652083206322</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.2257470595256263</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0003150336358212165</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.7159813860064893</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.7159813860064893</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57988.fa</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1114009844483911</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.1032572205904682</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.001370333863583809</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.783971461097557</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.783971461097557</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58133.fa</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.09997612169604896</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.196356132011327</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0002363968741577404</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.7034313494184664</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.7034313494184664</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58310.fa</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.02456087905247293</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.3589879297585555</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.35358955707638e-05</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6164076552934008</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.6164076552934008</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59576.fa</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.06793989983920373</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.1744753943006561</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.0004727406241352011</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.7571119652360049</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.7571119652360049</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT5959.fa</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.07232756080990961</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1513643397401995</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.0008674724701959283</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.775440626979695</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.775440626979695</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60320.fa</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.2054880902680582</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.06313599637747924</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.00217476176198954</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.729201151592473</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.729201151592473</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60370.fa</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.01868047953157094</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.3180136288964492</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0003118611399187184</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.6629940304320612</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.6629940304320612</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60605.fa</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1295947880638073</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.09587664693438491</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.003347423851640668</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.7711811411501671</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.7711811411501671</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60882.fa</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.03773059296021069</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.2414395770882387</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.00109402477906753</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.7197358051724831</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.7197358051724831</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60999.fa</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.03976086293973672</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.2006913765996217</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0005307538208308534</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.7590170066398106</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.7590170066398106</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61376.fa</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.1167022967740751</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.1567016015976599</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.001772972499822754</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.7248231291284422</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.7248231291284422</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61937.fa</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.1156145374775108</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.116785336530152</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.0007681374048822025</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.766831988587455</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.766831988587455</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62054.fa</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.04008255568201376</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.2532076410928241</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.00027287392464476</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.7064369293005174</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.7064369293005174</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6619.fa</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.2999598154527527</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.397700929142408</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.3023392554046787</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.604731994914113e-13</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.397700929142408</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp002478955</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp002478955(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6722.fa</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.294913192288218</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.325909702153773</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.3791771055578541</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.550918647183981e-13</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.3791771055578541</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541945</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541945(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7040.fa</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.05785610663113629</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.1850441075583002</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0003073469929325594</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.756792438817631</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.756792438817631</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT72119.fa</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.02251373462508414</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.2169633941685103</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.000361530660998115</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.7601613405454075</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.7601613405454075</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT72127.fa</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.03713858647162732</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.2716054432249902</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.0002587200619810678</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.6909972502414014</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.6909972502414014</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT74329.fa</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.3003218012594155</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.06024945734172267</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.0008124646973553028</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.6386162767015066</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.6386162767015066</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75402.fa</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.119684017999445</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.1456205245586386</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.001280771254770105</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.7334146861871463</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.7334146861871463</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75430.fa</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.03211493033131585</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.2789310475889237</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.0003669980573630732</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.6885870240223975</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.6885870240223975</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80816.fa</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1353540425345968</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.09782584681720297</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.0009815081421288697</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.7658386025060714</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.7658386025060714</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT8083.fa</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.005783826719508276</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.01725199348072293</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.005320472593398447</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9716437072063704</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9716437072063704</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>s__Treponema_D sp900541995</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>s__Treponema_D sp900541995</t>
+      <c r="B64" t="n">
+        <v>0.005783826719507296</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.01725199348072207</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.005320472593399113</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.9716437072063715</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.9716437072063715</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81679.fa</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.1307872799788237</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.107423305736419</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.0007596134141058273</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.7610298008706514</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.7610298008706514</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81926.fa</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1735559491540846</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.09703998489570914</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.0008290739589754514</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.7285749919912308</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.7285749919912308</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81946.fa</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.2754524371750648</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.05574212079410221</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.0006202355680692035</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.6681852064627638</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.6681852064627638</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81987.fa</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.1307872799788237</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.107423305736419</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.0007596134141058273</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.7610298008706514</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.7610298008706514</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82105.fa</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.07955569861224447</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.09401580328017001</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.0007675340541812178</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.8256609640534043</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.8256609640534043</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82468.fa</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.02310253271964447</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.3526516217266732</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.000110653837180695</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.6241351917165017</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.6241351917165017</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82635.fa</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.02928649692855115</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.2768337327052227</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.0002473936914979329</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.6936323766747282</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.6936323766747282</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82654.fa</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.04141545180264183</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.1964111449534247</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0008691684785937735</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.7613042347653397</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.7613042347653397</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82703.fa</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.05895810968342469</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.1522479888611221</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.000427364041250259</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.7883665374142029</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.7883665374142029</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82744.fa</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.0995206439792103</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.1861212986636709</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.0006095460001138294</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.7137485113570049</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.7137485113570049</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89180.fa</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.01596478603252325</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.3936376744048345</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5.824870153504893e-05</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89206.fa</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.01596478603252325</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.3936376744048345</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5.824870153504893e-05</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89290.fa</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.01596478603252325</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.3936376744048345</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5.824870153504893e-05</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89315.fa</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.07094118446957649</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.2165514109642201</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.000182457568930014</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.7123249469972734</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.7123249469972734</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89344.fa</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.02472984402714946</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.1902826129216428</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0006116741058866781</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.7843758689453211</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.7843758689453211</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89353.fa</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.01596478603252325</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.3936376744048345</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5.824870153504893e-05</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89571.fa</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.04544510670600817</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.200588487058016</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.0002193826851475103</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.7537470235508283</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.7537470235508283</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89719.fa</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.01596478603252325</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.3936376744048345</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5.824870153504893e-05</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90109.fa</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.01596478603252325</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.3936376744048345</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5.824870153504893e-05</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90165.fa</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.01596478603252325</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.3936376744048345</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5.824870153504893e-05</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90191.fa</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.07094118446957649</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.2165514109642201</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.000182457568930014</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.7123249469972734</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.7123249469972734</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90290.fa</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.04837072152042727</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.2348447039121401</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.0001572740822809843</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.7166273004851517</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.7166273004851517</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90502.fa</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.04544510670600817</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.200588487058016</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0002193826851475103</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.7537470235508283</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.7537470235508283</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90506.fa</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.01596478603252325</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.3936376744048345</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5.824870153504893e-05</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90686.fa</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.09648503321230613</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.1918090133587563</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0001613600225131432</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.7115445934064243</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.7115445934064243</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90976.fa</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.01596478603252325</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.3936376744048345</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5.824870153504893e-05</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91118.fa</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.01596478603252325</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.3936376744048345</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5.824870153504893e-05</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91137.fa</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.01596478603252325</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.3936376744048345</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5.824870153504893e-05</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.5903392908611071</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp900541995(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9688.fa</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.7242199040954913</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.1484139944483661</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.1273661014560911</v>
+      </c>
+      <c r="E93" t="n">
+        <v>5.152950477444123e-14</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.7242199040954913</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp002449305</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>s__Treponema_D sp002449305</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Treponema_D.xlsx
+++ b/outputs-HGR-r202/g__Treponema_D.xlsx
@@ -536,7 +536,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3800,7 +3800,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -4504,7 +4504,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp900541995</t>
+          <t>s__Treponema_D sp900541995(reject)</t>
         </is>
       </c>
     </row>
